--- a/biology/Botanique/Sterculia_foetida/Sterculia_foetida.xlsx
+++ b/biology/Botanique/Sterculia_foetida/Sterculia_foetida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sterculier fétide, aussi surnommé, selon les endroits, tabac de femme, arbre caca, arbre à merde (à Mayotte), arbre moufette, olivier de Java ou olivier putois[1] (Sterculia foetida), est une espèce d'arbres de la famille des Sterculiaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sterculier fétide, aussi surnommé, selon les endroits, tabac de femme, arbre caca, arbre à merde (à Mayotte), arbre moufette, olivier de Java ou olivier putois (Sterculia foetida), est une espèce d'arbres de la famille des Sterculiaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre aux feuilles digitées qui produisent des petites fleurs malodorantes, d'où son nom et ses variantes.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Asie tropicale et d'Océanie : Chine, Inde, Sri Lanka, Birmanie, Thaïlande, Indonésie, Malaisie et Australie.
 Elle peut être cultivée dans d'autres zones tropicales.
@@ -578,7 +594,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Sterculier fétide. Encyclopédie online de la flore à la Réunion (site édité par l'association Flore Réunion). Consulté le 18 octobre 2008.
